--- a/assets/XOLO_PTDB_Nomenclature.xlsx
+++ b/assets/XOLO_PTDB_Nomenclature.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crudnicky/Development/targetuploader/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F43535-C1AF-464D-913C-027B202F5C4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8A0B63-A5C3-F241-B34E-9E8B7EB3454F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="0" windowWidth="15840" windowHeight="21600" xr2:uid="{CCCF842F-453B-3647-8A0B-54DE93B664B8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{CCCF842F-453B-3647-8A0B-54DE93B664B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$47</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -936,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11387B1-20F5-B942-A26A-E0134A70B74A}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,7 +1347,7 @@
         <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -1891,6 +1894,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F47" xr:uid="{5E95F934-8E18-284C-B94A-C197FDD6227B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/XOLO_PTDB_Nomenclature.xlsx
+++ b/assets/XOLO_PTDB_Nomenclature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crudnicky/Development/targetuploader/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8A0B63-A5C3-F241-B34E-9E8B7EB3454F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F0A3B-B7C4-B24E-B9B5-D49998A76F72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{CCCF842F-453B-3647-8A0B-54DE93B664B8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34580" windowHeight="21940" xr2:uid="{CCCF842F-453B-3647-8A0B-54DE93B664B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="173">
   <si>
     <t>Target Name</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Partner Reference Molecule</t>
-  </si>
-  <si>
-    <t>CD19_MicAbody_HC_00</t>
   </si>
   <si>
     <t>KK989_CD19_HC_DANA</t>
@@ -940,7 +937,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,902 +972,902 @@
     </row>
     <row r="2" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
       <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
         <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
       <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
       <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
         <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
       <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
         <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>62</v>
       </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
       <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
         <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>70</v>
       </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
       <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
         <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
         <v>72</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>73</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>74</v>
       </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
       <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
         <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
         <v>76</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>77</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
       <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
         <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
         <v>80</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>81</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>82</v>
       </c>
-      <c r="D20" t="s">
-        <v>83</v>
-      </c>
       <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
         <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
         <v>88</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>89</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>90</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>91</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>92</v>
-      </c>
-      <c r="F22" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
         <v>94</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>95</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>96</v>
       </c>
-      <c r="D23" t="s">
-        <v>97</v>
-      </c>
       <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
         <v>92</v>
-      </c>
-      <c r="F23" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
         <v>98</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>99</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>100</v>
       </c>
-      <c r="D24" t="s">
-        <v>101</v>
-      </c>
       <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s">
         <v>92</v>
-      </c>
-      <c r="F24" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
         <v>102</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>103</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>104</v>
       </c>
-      <c r="D25" t="s">
-        <v>105</v>
-      </c>
       <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" t="s">
         <v>92</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
         <v>110</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>111</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>112</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>113</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>114</v>
-      </c>
-      <c r="F27" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" t="s">
         <v>116</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>117</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>118</v>
       </c>
-      <c r="D28" t="s">
-        <v>119</v>
-      </c>
       <c r="E28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" t="s">
         <v>114</v>
-      </c>
-      <c r="F28" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
         <v>120</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>121</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>122</v>
       </c>
-      <c r="D29" t="s">
-        <v>123</v>
-      </c>
       <c r="E29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" t="s">
         <v>114</v>
-      </c>
-      <c r="F29" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
         <v>124</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>125</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>126</v>
       </c>
-      <c r="D30" t="s">
-        <v>127</v>
-      </c>
       <c r="E30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" t="s">
         <v>114</v>
-      </c>
-      <c r="F30" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
         <v>132</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>133</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>134</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>135</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>136</v>
-      </c>
-      <c r="F32" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" t="s">
         <v>138</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>140</v>
       </c>
-      <c r="D33" t="s">
-        <v>141</v>
-      </c>
       <c r="E33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" t="s">
         <v>136</v>
-      </c>
-      <c r="F33" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" t="s">
         <v>142</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>143</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>144</v>
       </c>
-      <c r="D34" t="s">
-        <v>145</v>
-      </c>
       <c r="E34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" t="s">
         <v>136</v>
-      </c>
-      <c r="F34" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" t="s">
         <v>146</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>147</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>148</v>
       </c>
-      <c r="D35" t="s">
-        <v>149</v>
-      </c>
       <c r="E35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" t="s">
         <v>136</v>
-      </c>
-      <c r="F35" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37" t="s">
         <v>154</v>
       </c>
-      <c r="B37" t="s">
-        <v>155</v>
-      </c>
       <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
         <v>14</v>
       </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
       <c r="E37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" t="s">
         <v>114</v>
-      </c>
-      <c r="F37" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" t="s">
         <v>156</v>
       </c>
-      <c r="B38" t="s">
-        <v>157</v>
-      </c>
       <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
         <v>20</v>
       </c>
-      <c r="D38" t="s">
-        <v>21</v>
-      </c>
       <c r="E38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" t="s">
         <v>114</v>
-      </c>
-      <c r="F38" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" t="s">
         <v>158</v>
       </c>
-      <c r="B39" t="s">
-        <v>159</v>
-      </c>
       <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
         <v>24</v>
       </c>
-      <c r="D39" t="s">
-        <v>25</v>
-      </c>
       <c r="E39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" t="s">
         <v>114</v>
-      </c>
-      <c r="F39" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" t="s">
         <v>160</v>
       </c>
-      <c r="B40" t="s">
-        <v>161</v>
-      </c>
       <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
         <v>28</v>
       </c>
-      <c r="D40" t="s">
-        <v>29</v>
-      </c>
       <c r="E40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" t="s">
         <v>114</v>
-      </c>
-      <c r="F40" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" t="s">
         <v>164</v>
       </c>
-      <c r="B42" t="s">
-        <v>165</v>
-      </c>
       <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
         <v>14</v>
       </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
       <c r="E42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" t="s">
         <v>136</v>
-      </c>
-      <c r="F42" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" t="s">
         <v>166</v>
       </c>
-      <c r="B43" t="s">
-        <v>167</v>
-      </c>
       <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
         <v>20</v>
       </c>
-      <c r="D43" t="s">
-        <v>21</v>
-      </c>
       <c r="E43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" t="s">
         <v>136</v>
-      </c>
-      <c r="F43" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" t="s">
         <v>168</v>
       </c>
-      <c r="B44" t="s">
-        <v>169</v>
-      </c>
       <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
         <v>24</v>
       </c>
-      <c r="D44" t="s">
-        <v>25</v>
-      </c>
       <c r="E44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" t="s">
         <v>136</v>
-      </c>
-      <c r="F44" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" t="s">
         <v>170</v>
       </c>
-      <c r="B45" t="s">
-        <v>171</v>
-      </c>
       <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
         <v>28</v>
       </c>
-      <c r="D45" t="s">
-        <v>29</v>
-      </c>
       <c r="E45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" t="s">
         <v>136</v>
-      </c>
-      <c r="F45" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="C46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1881,16 +1878,16 @@
         <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
